--- a/data/promoters.xlsx
+++ b/data/promoters.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED9C51-A3E0-4A8B-95D6-16114381C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="384">
   <si>
     <t>id</t>
   </si>
@@ -1614,19 +1615,81 @@
   </si>
   <si>
     <t>TGGCCCCTCCCTCGGGTTACCCCACAGCCTAGGCCGATTCGACCTCTCTCCGCTGGGGCCCTCGCTGGCGTCCCTGCACCCTGGGAGCGCGAGCGGCGCGCGGGCGGGGAAGCGCGGCCCAGACCCCCGGGTCCGCCCGGAGCAGCTGCGCTGTCGGGGCCAGGCCGGGCTCCCAGTGGATTCGCGGGCACAGACGCCCAGGACCGCGCTTCCCACGTGGCGGAGGGACTGGGGACCCGGGCACCCGTCCTGCCCCTTCACCTTCCAGCTCCGCCTCCTCCGCGCGGACCCCGCCCCGTCCCGACCCCTCCCGGGTCCCCGGCCCAGCCCCCTCCGGGCCCTCCCAGCCCCTCCCCTTCCTTTCCGCGGCCCCGCCCTCTCCTCGCGGCGCGAGTTTCAGGCAGCGCTGCGTCCTGCTGCGCACGTGGGAAGCCCTGGCCCCGGCCACCCCCGCG</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>GAGGGCCTATTTCCCATGATTCCTTCATATTTGCATATACGATACAAGGCTGTTAGAGAGATAATTGGAATTAATTTGACTGTAAACACAAAGATATTAGTACAAAATACGTGACGTAGAAAGTAATAATTTCTTGGGTAGTTTGCAGTTTTAAAATTATGTTTTAAAATGGACTATCATATGCTTACCGTAACTTGAAAGTATTTCGATTTCTTGGCTTTATATATCTTGTGGAAAGGACGAAACACC</t>
+  </si>
+  <si>
+    <t>Nucleic Acids Res. 20:4903 (1992); Mol Cell Biol. 13:4670 (1993)</t>
+  </si>
+  <si>
+    <t>non-coding</t>
+  </si>
+  <si>
+    <t>Human U6 small nuclear 1 promoter</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Homo sapiens cell-line HEK-293 7SK RNA promoter region</t>
+  </si>
+  <si>
+    <t>7SK</t>
+  </si>
+  <si>
+    <t>Polymerase III promoter</t>
+  </si>
+  <si>
+    <t>Submitted (22-MAR-2004) Laboratorio de Farmacoterapia Genica, Departamento de Quimica Farmacologica y Toxicologica, Facultad de Ciencias Quimicas y Farmaceuticas, Universidad de Chile, Olivos 1007, Independencia, Santiago 838-0492, Chile</t>
+  </si>
+  <si>
+    <t>CTGCAGTATTTAGCATGCCCCACCCATCTGCAAGGCATTCTGGATAGTGTCAAAACAGCCGGAAATCAAGTCCGTTTATCTCAAACTTTAGCATTTTGGGAATAAATGATATTTGCTATGCTGGTTAAATTAGATTTTAGTTAAATTTCCTGCTGAAGCTCTAGTACGATAAGCAACTTGACCTAAGTGTAAAGTTGAGATTTCCTTCAGGTTTATATAGCTTGTGCGCCGCCTGGGTACCTC</t>
+  </si>
+  <si>
+    <t>Human gene for H1 RNA promoter</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>van Wijnen,A.J., Wright,K.L., Massung,R.F., Gerretsen,M., Stein,J.L. and Stein,G.S. Two target sites for protein binding in the promoter region of a cell cycle regulated human H1 histone gene Nucleic Acids Res. 16 (2), 571-592 (1988); Baer,M., Nilsen,T., Costigan,C. and Altman,S. Human Gene for H1 RNA Nucleic Acids Res. (1989)</t>
+  </si>
+  <si>
+    <t>GAACGCTGACGTCATCAACCCGCTCCAAGGAATCGCGGGCCCAGTGTCACTAGGCGGGAACACCCAGCGCGCGTGCGCCCTGGCAGGAAGATGGCTGTGAGGGACAGGGGAGTGGCGCCCTGCAATATTTGCATGTCGCTATGTGTTCTGGGAAATCACCATAAACGTGAAATGTCTTTGGATTTGGGAATCTTATAAGTTCTGTATGAGACCACA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1654,6 +1717,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1675,7 +1744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1722,36 +1791,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1760,13 +1857,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1804,7 +1909,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1838,6 +1943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1872,9 +1978,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2047,24 +2154,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2081,13 +2188,16 @@
         <v>64</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.2" thickBot="1">
+    <row r="2" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2103,16 +2213,19 @@
       <c r="E2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="82.2" thickBot="1">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2128,15 +2241,18 @@
       <c r="E3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2152,15 +2268,18 @@
       <c r="E4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2176,15 +2295,18 @@
       <c r="E5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" thickBot="1">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2200,15 +2322,18 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" thickBot="1">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2224,15 +2349,18 @@
       <c r="E7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" thickBot="1">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2248,15 +2376,18 @@
       <c r="E8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="41.4" thickBot="1">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2272,15 +2403,18 @@
       <c r="E9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="51.6" thickBot="1">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2296,15 +2430,18 @@
       <c r="E10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2320,15 +2457,18 @@
       <c r="E11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2344,15 +2484,18 @@
       <c r="E12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2368,15 +2511,18 @@
       <c r="E13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2392,14 +2538,17 @@
       <c r="E14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="51.6" thickBot="1">
+    <row r="15" spans="1:10" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2415,14 +2564,17 @@
       <c r="E15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.2" thickBot="1">
+    <row r="16" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2438,14 +2590,17 @@
       <c r="E16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="61.8" thickBot="1">
+    <row r="17" spans="1:8" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2461,14 +2616,17 @@
       <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41.4" thickBot="1">
+    <row r="18" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2484,14 +2642,17 @@
       <c r="E18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="21" thickBot="1">
+    <row r="19" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2507,14 +2668,17 @@
       <c r="E19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21" thickBot="1">
+    <row r="20" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2530,14 +2694,17 @@
       <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21" thickBot="1">
+    <row r="21" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2553,14 +2720,17 @@
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21" thickBot="1">
+    <row r="22" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2576,14 +2746,17 @@
       <c r="E22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2599,14 +2772,17 @@
       <c r="E23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21" thickBot="1">
+    <row r="24" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2622,14 +2798,17 @@
       <c r="E24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2645,14 +2824,17 @@
       <c r="E25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2668,14 +2850,17 @@
       <c r="E26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2691,14 +2876,17 @@
       <c r="E27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21" thickBot="1">
+    <row r="28" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2714,14 +2902,17 @@
       <c r="E28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21" thickBot="1">
+    <row r="29" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2737,14 +2928,17 @@
       <c r="E29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2760,14 +2954,17 @@
       <c r="E30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="21" thickBot="1">
+    <row r="31" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2783,14 +2980,17 @@
       <c r="E31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.2" thickBot="1">
+    <row r="32" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2806,14 +3006,17 @@
       <c r="E32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.2" thickBot="1">
+    <row r="33" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2829,14 +3032,17 @@
       <c r="E33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21" thickBot="1">
+    <row r="34" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2852,14 +3058,17 @@
       <c r="E34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="41.4" thickBot="1">
+    <row r="35" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2875,14 +3084,17 @@
       <c r="E35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2898,14 +3110,17 @@
       <c r="E36" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2921,14 +3136,17 @@
       <c r="E37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="41.4" thickBot="1">
+    <row r="38" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2944,14 +3162,17 @@
       <c r="E38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21" thickBot="1">
+    <row r="39" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2967,14 +3188,17 @@
       <c r="E39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="21" thickBot="1">
+    <row r="40" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2990,14 +3214,17 @@
       <c r="E40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="21" thickBot="1">
+    <row r="41" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3013,14 +3240,17 @@
       <c r="E41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1">
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -3036,14 +3266,17 @@
       <c r="E42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1">
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3059,14 +3292,17 @@
       <c r="E43" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="41.4" thickBot="1">
+    <row r="44" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -3082,14 +3318,17 @@
       <c r="E44" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.2" thickBot="1">
+    <row r="45" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3105,14 +3344,17 @@
       <c r="E45" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="31.2" thickBot="1">
+    <row r="46" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3128,14 +3370,17 @@
       <c r="E46" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="21" thickBot="1">
+    <row r="47" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3151,14 +3396,17 @@
       <c r="E47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="51.6" thickBot="1">
+    <row r="48" spans="1:8" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3174,14 +3422,17 @@
       <c r="E48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="31.2" thickBot="1">
+    <row r="49" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3197,14 +3448,17 @@
       <c r="E49" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3220,14 +3474,17 @@
       <c r="E50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3243,14 +3500,17 @@
       <c r="E51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -3266,14 +3526,17 @@
       <c r="E52" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" thickBot="1">
+    <row r="53" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -3289,14 +3552,17 @@
       <c r="E53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="31.2" thickBot="1">
+    <row r="54" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -3312,14 +3578,17 @@
       <c r="E54" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="31.2" thickBot="1">
+    <row r="55" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -3335,14 +3604,17 @@
       <c r="E55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="31.2" thickBot="1">
+    <row r="56" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -3358,14 +3630,17 @@
       <c r="E56" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="72" thickBot="1">
+    <row r="57" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -3381,14 +3656,17 @@
       <c r="E57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="21" thickBot="1">
+    <row r="58" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -3404,14 +3682,17 @@
       <c r="E58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="21" thickBot="1">
+    <row r="59" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -3427,14 +3708,17 @@
       <c r="E59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -3450,14 +3734,17 @@
       <c r="E60" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="41.4" thickBot="1">
+    <row r="61" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3473,14 +3760,17 @@
       <c r="E61" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="51.6" thickBot="1">
+    <row r="62" spans="1:8" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3496,14 +3786,17 @@
       <c r="E62" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="41.4" thickBot="1">
+    <row r="63" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -3519,14 +3812,17 @@
       <c r="E63" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1">
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3542,14 +3838,17 @@
       <c r="E64" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51.6" thickBot="1">
+    <row r="65" spans="1:8" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -3565,14 +3864,17 @@
       <c r="E65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="21" thickBot="1">
+    <row r="66" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -3588,14 +3890,17 @@
       <c r="E66" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="21" thickBot="1">
+    <row r="67" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -3611,14 +3916,17 @@
       <c r="E67" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1">
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -3634,14 +3942,17 @@
       <c r="E68" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="82.2" thickBot="1">
+    <row r="69" spans="1:8" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -3657,14 +3968,17 @@
       <c r="E69" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="31.2" thickBot="1">
+    <row r="70" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -3680,14 +3994,17 @@
       <c r="E70" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="31.2" thickBot="1">
+    <row r="71" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3703,61 +4020,244 @@
       <c r="E71" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="F75" s="7"/>
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" display="http://www.jbc.org/content/280/26/24731.long"/>
-    <hyperlink ref="F17" r:id="rId2" display="http://www.jneurosci.org/content/14/12/7319.long"/>
-    <hyperlink ref="F19" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Neuroscience.+161%3A441+(2009)"/>
-    <hyperlink ref="F20" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Mol+Ther.+5%3A509+(2002)"/>
-    <hyperlink ref="F25" r:id="rId5" display="http://www.jneurosci.org/content/14/3/1030.long"/>
-    <hyperlink ref="F26" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pubmed/18240313/"/>
-    <hyperlink ref="F27" r:id="rId7" display="https://pubmed.ncbi.nlm.nih.gov/15948177/"/>
-    <hyperlink ref="F30" r:id="rId8" display="https://pubmed.ncbi.nlm.nih.gov/18849347/"/>
-    <hyperlink ref="F31" r:id="rId9" display="https://pubmed.ncbi.nlm.nih.gov/18667607/"/>
-    <hyperlink ref="F34" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pubmed/11860472"/>
-    <hyperlink ref="F36" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pubmed/7533118"/>
-    <hyperlink ref="F40" r:id="rId12" display="http://www.jbc.org/content/266/36/24613.long"/>
-    <hyperlink ref="F41" r:id="rId13" display="http://www.jbc.org/content/266/36/24613.long"/>
-    <hyperlink ref="F42" r:id="rId14" display="http://genesdev.cshlp.org/content/7/7a/1277.long"/>
-    <hyperlink ref="F43" r:id="rId15" display="http://www.jbc.org/content/268/1/719.long"/>
-    <hyperlink ref="F45" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2120743/"/>
-    <hyperlink ref="F46" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pubmed/19244098"/>
-    <hyperlink ref="F47" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Biochim+Biophys+Acta.+1731%3A95+(2005)"/>
-    <hyperlink ref="F48" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Mol+Endocrinol.+11%3A1695+(1997)"/>
-    <hyperlink ref="F49" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pubmed/8024654"/>
-    <hyperlink ref="F50" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2654410/"/>
-    <hyperlink ref="F51" r:id="rId22" display="http://www.jbc.org/content/268/30/22243.long"/>
-    <hyperlink ref="F52" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2875825/"/>
-    <hyperlink ref="F53" r:id="rId24" display="http://jcs.biologists.org/content/115/10/2075.long"/>
-    <hyperlink ref="F54" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Dev+Dyn.+235%3A759+(2006)"/>
-    <hyperlink ref="F55" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3697098/"/>
-    <hyperlink ref="F59" r:id="rId27" display="http://genesdev.cshlp.org/content/1/3/268.long"/>
-    <hyperlink ref="F60" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pubmed/22820390"/>
-    <hyperlink ref="F62" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC147032/"/>
-    <hyperlink ref="F63" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC147032/"/>
-    <hyperlink ref="F65" r:id="rId31" display="http://dev.biologists.org/content/129/10/2447.long"/>
-    <hyperlink ref="F67" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/pubmed/17173866"/>
-    <hyperlink ref="F68" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/pubmed/12481297"/>
-    <hyperlink ref="F70" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2800996/"/>
+    <hyperlink ref="G15" r:id="rId1" display="http://www.jbc.org/content/280/26/24731.long" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G17" r:id="rId2" display="http://www.jneurosci.org/content/14/12/7319.long" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G19" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Neuroscience.+161%3A441+(2009)" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G20" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Mol+Ther.+5%3A509+(2002)" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G25" r:id="rId5" display="http://www.jneurosci.org/content/14/3/1030.long" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G26" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pubmed/18240313/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G27" r:id="rId7" display="https://pubmed.ncbi.nlm.nih.gov/15948177/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G30" r:id="rId8" display="https://pubmed.ncbi.nlm.nih.gov/18849347/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G31" r:id="rId9" display="https://pubmed.ncbi.nlm.nih.gov/18667607/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G34" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pubmed/11860472" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G36" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pubmed/7533118" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G40" r:id="rId12" display="http://www.jbc.org/content/266/36/24613.long" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G41" r:id="rId13" display="http://www.jbc.org/content/266/36/24613.long" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G42" r:id="rId14" display="http://genesdev.cshlp.org/content/7/7a/1277.long" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G43" r:id="rId15" display="http://www.jbc.org/content/268/1/719.long" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G45" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2120743/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G46" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pubmed/19244098" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G47" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Biochim+Biophys+Acta.+1731%3A95+(2005)" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G48" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Mol+Endocrinol.+11%3A1695+(1997)" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G49" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pubmed/8024654" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G50" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2654410/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G51" r:id="rId22" display="http://www.jbc.org/content/268/30/22243.long" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G52" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2875825/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G53" r:id="rId24" display="http://jcs.biologists.org/content/115/10/2075.long" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G54" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Dev+Dyn.+235%3A759+(2006)" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G55" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3697098/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G59" r:id="rId27" display="http://genesdev.cshlp.org/content/1/3/268.long" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G60" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pubmed/22820390" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G62" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC147032/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G63" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC147032/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G65" r:id="rId31" display="http://dev.biologists.org/content/129/10/2447.long" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G67" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/pubmed/17173866" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G68" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/pubmed/12481297" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G70" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2800996/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
@@ -3765,12 +4265,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3778,12 +4278,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
